--- a/Planning and Design/SprintBurnDown_Sprint_3.xlsx
+++ b/Planning and Design/SprintBurnDown_Sprint_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn\source\CST-323\CST-247-Project\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CE1EBC-B548-420B-B4E6-0ACC53D3FA71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2CDC02-A289-4FBA-8B77-C72F4AA8D9BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="232" yWindow="375" windowWidth="20491" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="585" windowWidth="20490" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Task</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Task 3</t>
   </si>
   <si>
-    <t>Task 4</t>
+    <t>Task 6</t>
   </si>
   <si>
     <t>User Story</t>
@@ -154,9 +154,6 @@
     <t>After each Daily Standup each Team Member should review the Burn Down Chart to ensure your Sprint will be delivered on time</t>
   </si>
   <si>
-    <t>M2-4</t>
-  </si>
-  <si>
     <t>I would like to update design documentation</t>
   </si>
   <si>
@@ -166,29 +163,29 @@
     <t>Richard</t>
   </si>
   <si>
-    <t>M4-1</t>
-  </si>
-  <si>
-    <t>M4-2</t>
-  </si>
-  <si>
-    <t>M4-3</t>
-  </si>
-  <si>
-    <t>I would like the board options, score, timer to look appealing</t>
-  </si>
-  <si>
-    <t>Create front end logic for Ajax request to backend game service.</t>
-  </si>
-  <si>
-    <t>Create game controller for Ajax requests from front end.</t>
-  </si>
-  <si>
-    <t>Shawn/Richard</t>
+    <t>M3-1</t>
+  </si>
+  <si>
+    <t>M3-2</t>
+  </si>
+  <si>
+    <t>M3-3</t>
+  </si>
+  <si>
+    <t>M3-4</t>
+  </si>
+  <si>
+    <t>I would like to create the game board and game cell classes so we can begin the base game.</t>
+  </si>
+  <si>
+    <t>I would like to create a game controller so we can show the game board to users.</t>
+  </si>
+  <si>
+    <t>I would like to create a game service which house logic from previous assignments so we have game functionality.</t>
   </si>
   <si>
     <t>Project Title: Minesweeper
-Release #: 3.0
+Release #: 2.0
 Sprint #: 3</t>
   </si>
 </sst>
@@ -443,34 +440,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.6</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.2</c:v>
+                  <c:v>4.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7999999999999989</c:v>
+                  <c:v>4.2000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3999999999999986</c:v>
+                  <c:v>3.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9999999999999982</c:v>
+                  <c:v>3.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5999999999999979</c:v>
+                  <c:v>2.4000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1999999999999975</c:v>
+                  <c:v>1.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7999999999999976</c:v>
+                  <c:v>1.2000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3999999999999977</c:v>
+                  <c:v>0.60000000000000064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2204460492503131E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,22 +548,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -959,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -975,7 +972,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1054,28 +1051,28 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
         <v>2</v>
@@ -1104,10 +1101,10 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>46</v>
@@ -1119,25 +1116,23 @@
         <v>40</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -1154,19 +1149,19 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -1181,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -1190,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
@@ -1204,22 +1199,22 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1240,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
@@ -1432,47 +1427,47 @@
       <c r="E12" s="12"/>
       <c r="F12" s="4">
         <f>SUM(F4:F11)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4">
         <f>F12-$F$12/10</f>
-        <v>12.6</v>
+        <v>5.4</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ref="H12:P12" si="0">G12-$F$12/10</f>
-        <v>11.2</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>9.7999999999999989</v>
+        <v>4.2000000000000011</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
-        <v>8.3999999999999986</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>6.9999999999999982</v>
+        <v>3.0000000000000009</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>5.5999999999999979</v>
+        <v>2.4000000000000008</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
-        <v>4.1999999999999975</v>
+        <v>1.8000000000000007</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>2.7999999999999976</v>
+        <v>1.2000000000000006</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>1.3999999999999977</v>
+        <v>0.60000000000000064</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="0"/>
-        <v>-2.2204460492503131E-15</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1487,31 +1482,31 @@
       <c r="E13" s="12"/>
       <c r="F13" s="4">
         <f>SUM(F4:F11)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" ref="G13:P13" si="1">F13 - SUM(G4:G11)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="1"/>
@@ -1971,16 +1966,6 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2149,24 +2134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9FDC2B66788A044965A7B8958E6244A" ma:contentTypeVersion="1251" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c2c36359d71eb747fbb188f75fc8d29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d6188da8-f31e-469a-aed4-03a23c44e36a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08acee74153637279a480e75df712a71" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2355,7 +2322,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA975265-C41C-4191-AC8E-A5AD70B8A3C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="d6188da8-f31e-469a-aed4-03a23c44e36a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2372,29 +2376,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA975265-C41C-4191-AC8E-A5AD70B8A3C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="d6188da8-f31e-469a-aed4-03a23c44e36a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>